--- a/Code/Evaluation/XGBoost_Classifier_Predictions_All_Features_PCA_Classification_Report.xlsx
+++ b/Code/Evaluation/XGBoost_Classifier_Predictions_All_Features_PCA_Classification_Report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9051383399209486</v>
+        <v>0.9083665338645418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8207885304659498</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8609022556390977</v>
+        <v>0.8603773584905661</v>
       </c>
       <c r="E2" t="n">
         <v>279</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8930817610062893</v>
+        <v>0.8987341772151899</v>
       </c>
       <c r="C3" t="n">
         <v>0.7513227513227513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8160919540229884</v>
+        <v>0.8184438040345821</v>
       </c>
       <c r="E3" t="n">
         <v>189</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8611764705882353</v>
+        <v>0.8655660377358491</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8299319727891157</v>
+        <v>0.8321995464852607</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8452655889145496</v>
+        <v>0.8485549132947977</v>
       </c>
       <c r="E4" t="n">
         <v>441</v>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8404907975460123</v>
+        <v>0.8384146341463414</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9448275862068966</v>
+        <v>0.9482758620689655</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8896103896103897</v>
+        <v>0.889967637540453</v>
       </c>
       <c r="E5" t="n">
         <v>580</v>
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8629952988582942</v>
+        <v>0.8643384822028207</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8629952988582942</v>
+        <v>0.8643384822028207</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8629952988582942</v>
+        <v>0.8643384822028207</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8629952988582942</v>
+        <v>0.8643384822028207</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8749718422653714</v>
+        <v>0.8777703457404805</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8367177101961782</v>
+        <v>0.8372506152380617</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8529675470467564</v>
+        <v>0.8543359283400997</v>
       </c>
       <c r="E7" t="n">
         <v>1489</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8654060011915597</v>
+        <v>0.8672196997234825</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8629952988582942</v>
+        <v>0.8643384822028207</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8617657886628579</v>
+        <v>0.8630793206970264</v>
       </c>
       <c r="E8" t="n">
         <v>1489</v>
